--- a/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:33:00+00:00</t>
+    <t>2024-05-23T12:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -234,13 +234,13 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: HealthcareService du Modèle exposition ROR V3</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HealthcareService du Modèle exposition ROR V3</t>
   </si>
   <si>
     <t/>
@@ -266,10 +266,10 @@
 dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
+    <t>OffreOperationnelle</t>
+  </si>
+  <si>
     <t>act[classCode=ACT][moodCode=DEF]</t>
-  </si>
-  <si>
-    <t>OffreOperationnelle</t>
   </si>
   <si>
     <t>HealthcareService.id</t>
@@ -324,10 +324,10 @@
 </t>
   </si>
   <si>
+    <t>metadonnee</t>
+  </si>
+  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>metadonnee</t>
   </si>
   <si>
     <t>HealthcareService.meta.id</t>
@@ -787,13 +787,13 @@
     <t>External identifiers for this item.</t>
   </si>
   <si>
+    <t>identifiantOffre</t>
+  </si>
+  <si>
     <t>.id</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>identifiantOffre</t>
   </si>
   <si>
     <t>HealthcareService.active</t>
@@ -815,13 +815,13 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
+    <t>Pas d'équivalent</t>
+  </si>
+  <si>
     <t>.statusCode</t>
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Pas d'équivalent</t>
   </si>
   <si>
     <t>HealthcareService.providedBy</t>
@@ -844,10 +844,10 @@
 ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
+    <t>OrganisationInterne</t>
+  </si>
+  <si>
     <t>.scopingRole.Organization</t>
-  </si>
-  <si>
-    <t>OrganisationInterne</t>
   </si>
   <si>
     <t>HealthcareService.category</t>
@@ -873,13 +873,13 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J238-TypeOffre-ROR/FHIR/JDV-J238-TypeOffre-ROR</t>
   </si>
   <si>
+    <t>typeOffre</t>
+  </si>
+  <si>
     <t>.code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>typeOffre</t>
   </si>
   <si>
     <t>HealthcareService.type</t>
@@ -901,10 +901,10 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J20-ChampActivite-ROR/FHIR/JDV-J20-ChampActivite-ROR</t>
   </si>
   <si>
+    <t>champActivite</t>
+  </si>
+  <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
-  </si>
-  <si>
-    <t>champActivite</t>
   </si>
   <si>
     <t>HealthcareService.specialty</t>
@@ -972,15 +972,15 @@
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
+    <t>LieuRealisationOffre</t>
+  </si>
+  <si>
     <t>.location.role[classCode=SDLOC]</t>
   </si>
   <si>
     <t>FiveWs.where[x]</t>
   </si>
   <si>
-    <t>LieuRealisationoffre</t>
-  </si>
-  <si>
     <t>HealthcareService.name</t>
   </si>
   <si>
@@ -993,12 +993,12 @@
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
+    <t>nomOffre</t>
+  </si>
+  <si>
     <t>.name</t>
   </si>
   <si>
-    <t>nomOffre</t>
-  </si>
-  <si>
     <t>HealthcareService.comment</t>
   </si>
   <si>
@@ -1011,10 +1011,10 @@
     <t>Would expect that a user would not see this information on a search results, and it would only be available when viewing the complete details of the service.</t>
   </si>
   <si>
+    <t>metadonnee.commentaire</t>
+  </si>
+  <si>
     <t>.location.role[classCode=SDLOC].desc</t>
-  </si>
-  <si>
-    <t>metadonnee.commentaire</t>
   </si>
   <si>
     <t>HealthcareService.extraDetails</t>
@@ -1079,10 +1079,10 @@
 cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
   </si>
   <si>
+    <t>boiteLettreMSS.adresseMSS</t>
+  </si>
+  <si>
     <t>.telecom</t>
-  </si>
-  <si>
-    <t>boiteLettreMSS.adresseMSS</t>
   </si>
   <si>
     <t>HealthcareService.telecom.id</t>
@@ -1185,10 +1185,10 @@
     <t>ContactPoint.value</t>
   </si>
   <si>
+    <t>adresseTelecom</t>
+  </si>
+  <si>
     <t>./url</t>
-  </si>
-  <si>
-    <t>adresseTelecom</t>
   </si>
   <si>
     <t>HealthcareService.telecom.use</t>
@@ -1935,10 +1935,10 @@
     <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
   </si>
   <si>
+    <t>horaire</t>
+  </si>
+  <si>
     <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>horaire</t>
   </si>
   <si>
     <t>HealthcareService.availableTime.id</t>
@@ -1989,7 +1989,7 @@
 </t>
   </si>
   <si>
-    <t>jourSemaine (Horaire) : Numéro du jour dans la semaine</t>
+    <t>jourSemaine (Horaire) : Numéro du jour dans la semaine - Remarque : L'utilisation de cette extension est privilégiée à celle de l'élément natif daysOfWeek.</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour indiquer le numéro du jour dans la semaine.</t>
@@ -2001,7 +2001,7 @@
     <t>HealthcareService.availableTime.daysOfWeek</t>
   </si>
   <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
+    <t>Remarque : L'utilisation de l'extension ror-available-time-number-days-of-week est privilégiée.</t>
   </si>
   <si>
     <t>Indicates which days of the week are available between the start and end Times.</t>
@@ -2158,12 +2158,12 @@
 per-1</t>
   </si>
   <si>
+    <t>dateFermeture</t>
+  </si>
+  <si>
     <t>./low</t>
   </si>
   <si>
-    <t>dateFermeture</t>
-  </si>
-  <si>
     <t>HealthcareService.notAvailable:closingReopeningDate.during.end</t>
   </si>
   <si>
@@ -2185,10 +2185,10 @@
     <t>Period.end</t>
   </si>
   <si>
+    <t>datePrevisionnelleReouverture</t>
+  </si>
+  <si>
     <t>./high</t>
-  </si>
-  <si>
-    <t>datePrevisionnelleReouverture</t>
   </si>
   <si>
     <t>HealthcareService.availabilityExceptions</t>
@@ -2575,9 +2575,9 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="72.5234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="61.59375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="61.59375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="72.5234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2802,10 +2802,10 @@
         <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2910,13 +2910,13 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -3022,10 +3022,10 @@
         <v>100</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -3128,10 +3128,10 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -3239,10 +3239,10 @@
         <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -3350,10 +3350,10 @@
         <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -3461,13 +3461,13 @@
         <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AL8" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM8" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -3572,10 +3572,10 @@
         <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -3683,10 +3683,10 @@
         <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -3794,10 +3794,10 @@
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -3905,10 +3905,10 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -4016,13 +4016,13 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -4127,10 +4127,10 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -4238,10 +4238,10 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -4349,10 +4349,10 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -4460,10 +4460,10 @@
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>75</v>
@@ -4680,13 +4680,13 @@
         <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -5459,10 +5459,10 @@
         <v>118</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -5795,10 +5795,10 @@
         <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -6013,10 +6013,10 @@
         <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -6119,10 +6119,10 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -6230,13 +6230,13 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>294</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -6341,13 +6341,13 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>299</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -6566,10 +6566,10 @@
         <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -6677,10 +6677,10 @@
         <v>318</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>319</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -6785,10 +6785,10 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>75</v>
@@ -6896,10 +6896,10 @@
         <v>331</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -7010,10 +7010,10 @@
         <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -7116,10 +7116,10 @@
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -7669,10 +7669,10 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -7785,10 +7785,10 @@
         <v>373</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>75</v>
+        <v>374</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>374</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7895,10 +7895,10 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -8006,10 +8006,10 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -8117,10 +8117,10 @@
         <v>396</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -8228,10 +8228,10 @@
         <v>263</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -8339,10 +8339,10 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -8448,10 +8448,10 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -8557,10 +8557,10 @@
         <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -8668,10 +8668,10 @@
         <v>118</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -8781,10 +8781,10 @@
         <v>118</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8892,10 +8892,10 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -9003,10 +9003,10 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -9114,10 +9114,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -9223,10 +9223,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -9332,10 +9332,10 @@
         <v>75</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -9443,10 +9443,10 @@
         <v>118</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>75</v>
@@ -9667,10 +9667,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>75</v>
@@ -9780,10 +9780,10 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9891,13 +9891,13 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM66" t="s" s="2">
-        <v>467</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -10000,10 +10000,10 @@
         <v>75</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -10111,10 +10111,10 @@
         <v>118</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -10335,10 +10335,10 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>75</v>
@@ -10448,10 +10448,10 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>75</v>
@@ -10559,13 +10559,13 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM72" t="s" s="2">
-        <v>477</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" hidden="true">
@@ -10668,10 +10668,10 @@
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10779,10 +10779,10 @@
         <v>118</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -11003,10 +11003,10 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>75</v>
@@ -11116,10 +11116,10 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>75</v>
@@ -11227,13 +11227,13 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM78" t="s" s="2">
-        <v>487</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -11336,10 +11336,10 @@
         <v>75</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>
@@ -11447,10 +11447,10 @@
         <v>118</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>75</v>
@@ -11671,10 +11671,10 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>75</v>
@@ -11784,10 +11784,10 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>75</v>
@@ -11895,13 +11895,13 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL84" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM84" t="s" s="2">
-        <v>497</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -12004,10 +12004,10 @@
         <v>75</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>75</v>
@@ -12115,10 +12115,10 @@
         <v>118</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>75</v>
@@ -12339,10 +12339,10 @@
         <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>75</v>
@@ -12452,10 +12452,10 @@
         <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>75</v>
@@ -12563,13 +12563,13 @@
         <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM90" t="s" s="2">
-        <v>507</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -12672,10 +12672,10 @@
         <v>75</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>75</v>
@@ -13001,10 +13001,10 @@
         <v>75</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>75</v>
@@ -13221,10 +13221,10 @@
         <v>75</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>75</v>
@@ -13328,10 +13328,10 @@
         <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>75</v>
@@ -13441,10 +13441,10 @@
         <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>75</v>
@@ -13554,10 +13554,10 @@
         <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL99" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>75</v>
@@ -13665,13 +13665,13 @@
         <v>99</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL100" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM100" t="s" s="2">
-        <v>533</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" hidden="true">
@@ -13774,10 +13774,10 @@
         <v>75</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL101" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>75</v>
@@ -14103,10 +14103,10 @@
         <v>75</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL104" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>75</v>
@@ -14323,10 +14323,10 @@
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>75</v>
@@ -14430,10 +14430,10 @@
         <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>75</v>
@@ -14543,10 +14543,10 @@
         <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL108" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>75</v>
@@ -14656,10 +14656,10 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>75</v>
@@ -14767,13 +14767,13 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL110" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL110" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM110" t="s" s="2">
-        <v>547</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" hidden="true">
@@ -14876,10 +14876,10 @@
         <v>75</v>
       </c>
       <c r="AK111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL111" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>75</v>
@@ -14987,10 +14987,10 @@
         <v>118</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>75</v>
@@ -15211,10 +15211,10 @@
         <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>75</v>
@@ -15324,10 +15324,10 @@
         <v>99</v>
       </c>
       <c r="AK115" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL115" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>75</v>
@@ -15435,13 +15435,13 @@
         <v>99</v>
       </c>
       <c r="AK116" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AL116" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL116" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM116" t="s" s="2">
-        <v>557</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" hidden="true">
@@ -15544,10 +15544,10 @@
         <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL117" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>75</v>
@@ -15655,10 +15655,10 @@
         <v>118</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>75</v>
@@ -15879,10 +15879,10 @@
         <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL120" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>75</v>
@@ -15992,10 +15992,10 @@
         <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL121" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>75</v>
@@ -16103,13 +16103,13 @@
         <v>99</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL122" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL122" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM122" t="s" s="2">
-        <v>567</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" hidden="true">
@@ -16212,10 +16212,10 @@
         <v>75</v>
       </c>
       <c r="AK123" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL123" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>75</v>
@@ -16323,10 +16323,10 @@
         <v>118</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>75</v>
@@ -16547,10 +16547,10 @@
         <v>99</v>
       </c>
       <c r="AK126" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL126" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>75</v>
@@ -16660,10 +16660,10 @@
         <v>99</v>
       </c>
       <c r="AK127" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL127" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>75</v>
@@ -16771,13 +16771,13 @@
         <v>99</v>
       </c>
       <c r="AK128" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL128" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL128" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM128" t="s" s="2">
-        <v>577</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" hidden="true">
@@ -16880,10 +16880,10 @@
         <v>75</v>
       </c>
       <c r="AK129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL129" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>75</v>
@@ -16991,10 +16991,10 @@
         <v>118</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>75</v>
@@ -17215,10 +17215,10 @@
         <v>99</v>
       </c>
       <c r="AK132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL132" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>75</v>
@@ -17328,10 +17328,10 @@
         <v>99</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL133" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>75</v>
@@ -17439,13 +17439,13 @@
         <v>99</v>
       </c>
       <c r="AK134" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL134" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM134" t="s" s="2">
-        <v>587</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" hidden="true">
@@ -17548,10 +17548,10 @@
         <v>75</v>
       </c>
       <c r="AK135" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>75</v>
@@ -17659,10 +17659,10 @@
         <v>118</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>75</v>
@@ -17883,10 +17883,10 @@
         <v>99</v>
       </c>
       <c r="AK138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL138" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>75</v>
@@ -17996,10 +17996,10 @@
         <v>99</v>
       </c>
       <c r="AK139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL139" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>75</v>
@@ -18107,13 +18107,13 @@
         <v>99</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AL140" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AL140" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM140" t="s" s="2">
-        <v>597</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" hidden="true">
@@ -18216,10 +18216,10 @@
         <v>75</v>
       </c>
       <c r="AK141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL141" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>75</v>
@@ -18327,10 +18327,10 @@
         <v>118</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>75</v>
@@ -18551,10 +18551,10 @@
         <v>99</v>
       </c>
       <c r="AK144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL144" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>75</v>
@@ -18664,10 +18664,10 @@
         <v>99</v>
       </c>
       <c r="AK145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL145" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>75</v>
@@ -18775,10 +18775,10 @@
         <v>99</v>
       </c>
       <c r="AK146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL146" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>75</v>
@@ -18886,10 +18886,10 @@
         <v>99</v>
       </c>
       <c r="AK147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL147" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>75</v>
@@ -18995,10 +18995,10 @@
         <v>99</v>
       </c>
       <c r="AK148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL148" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>75</v>
@@ -19020,7 +19020,7 @@
         <v>76</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>86</v>
@@ -19109,10 +19109,10 @@
         <v>620</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>621</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" hidden="true">
@@ -19215,10 +19215,10 @@
         <v>75</v>
       </c>
       <c r="AK150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL150" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>75</v>
@@ -19326,10 +19326,10 @@
         <v>118</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>75</v>
@@ -19772,10 +19772,10 @@
         <v>118</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>75</v>
@@ -19797,7 +19797,7 @@
         <v>76</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>75</v>
@@ -19883,10 +19883,10 @@
         <v>99</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>620</v>
+        <v>75</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>75</v>
@@ -19992,10 +19992,10 @@
         <v>99</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>620</v>
+        <v>75</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>75</v>
@@ -20103,13 +20103,13 @@
         <v>99</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>653</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" hidden="true">
@@ -20214,13 +20214,13 @@
         <v>99</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" hidden="true">
@@ -20321,10 +20321,10 @@
         <v>99</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>620</v>
+        <v>75</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>75</v>
@@ -20430,10 +20430,10 @@
         <v>75</v>
       </c>
       <c r="AK161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL161" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>75</v>
@@ -20541,10 +20541,10 @@
         <v>118</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>75</v>
@@ -20654,10 +20654,10 @@
         <v>118</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>75</v>
@@ -20765,10 +20765,10 @@
         <v>99</v>
       </c>
       <c r="AK164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL164" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>75</v>
@@ -20876,10 +20876,10 @@
         <v>396</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>620</v>
+        <v>75</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>75</v>
@@ -20987,10 +20987,10 @@
         <v>99</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>620</v>
+        <v>75</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>75</v>
@@ -21096,10 +21096,10 @@
         <v>75</v>
       </c>
       <c r="AK167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL167" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>75</v>
@@ -21207,10 +21207,10 @@
         <v>118</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>75</v>
@@ -21320,10 +21320,10 @@
         <v>118</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>75</v>
@@ -21431,10 +21431,10 @@
         <v>99</v>
       </c>
       <c r="AK170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL170" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL170" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>75</v>
@@ -21542,10 +21542,10 @@
         <v>396</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>620</v>
+        <v>75</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>75</v>
@@ -21651,10 +21651,10 @@
         <v>75</v>
       </c>
       <c r="AK172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL172" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL172" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>75</v>
@@ -21762,10 +21762,10 @@
         <v>118</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>75</v>
@@ -21876,10 +21876,10 @@
         <v>692</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>75</v>
+        <v>693</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>693</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" hidden="true">
@@ -21989,10 +21989,10 @@
         <v>701</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>75</v>
+        <v>702</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>702</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" hidden="true">
@@ -22097,10 +22097,10 @@
         <v>99</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>620</v>
+        <v>75</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>75</v>
@@ -22208,10 +22208,10 @@
         <v>263</v>
       </c>
       <c r="AK177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL177" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="AL177" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>75</v>

--- a/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:16:26+00:00</t>
+    <t>2024-12-09T16:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -433,7 +433,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -453,7 +453,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
